--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4287551.984715387</v>
+        <v>4359203.777275435</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7136611.5569707</v>
+        <v>7041504.032822966</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>174.6625415656805</v>
       </c>
       <c r="H2" t="n">
-        <v>250.2549263892252</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.389005322401392</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>237.6596569995505</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>211.1947722143168</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>26.71728140711206</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.12990358774286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>259.371007344704</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>21.06378739764936</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>94.94259091990867</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>113.7145621736544</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.31984007417594</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>59.19914695927525</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>33.66791875440851</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>242.4981118695096</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>158.9696347938387</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>89.05201133037725</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>60.27920353006288</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>59.77945773665003</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>188.1607094910709</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>136.8736401074748</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>53.0191556376765</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539631</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>126.5220628695177</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539631</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>232.1241909910388</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>47.41616814310291</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415232</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415232</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>105.4007546619418</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>67.98486366573582</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.851790143458</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.889273203046</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.889273203046</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="E2" t="n">
-        <v>885.1010206048018</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="F2" t="n">
-        <v>474.1151158151942</v>
+        <v>711.0304874515755</v>
       </c>
       <c r="G2" t="n">
-        <v>460.1917117537851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143458</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>357.2197656505683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>209.3066720681752</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>62.41672457026485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.952954307291</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1122.952954307291</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>711.9670495176831</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>294.00324141587</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2033.980194093214</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1702.917306749644</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1350.148651479529</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>976.6828932184496</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>586.5435612426379</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="X7" t="n">
-        <v>181.5489038166068</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2344.380435748107</v>
+        <v>1426.303625751931</v>
       </c>
       <c r="C8" t="n">
-        <v>1975.417918807696</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.152220200945</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>1231.363967602701</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>820.3780628130933</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>402.4142547112801</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>75.21953474728298</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748107</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748107</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748107</v>
+        <v>1426.303625751931</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5813018857447</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5813018857447</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>613.2657900916315</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>613.2657900916315</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>613.2657900916315</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>358.5813018857447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>358.5813018857447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>358.5813018857447</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.5813018857447</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,58 +5035,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
         <v>415.8104215925219</v>
@@ -5191,22 +5193,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150552</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170379</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735078</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5264,25 +5266,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1006.27269220504</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.92115703528</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>4040.160816087027</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>3871.22463315912</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>4221.809280917267</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>4221.809280917267</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>4221.809280917267</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5743,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5792,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.2581065529675</v>
+        <v>654.1345339792623</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2581065529675</v>
+        <v>485.1983510513554</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>335.0817116390197</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>187.1686180566265</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>187.1686180566265</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>903.2476574509849</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V22" t="n">
-        <v>903.2476574509849</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W22" t="n">
-        <v>903.2476574509849</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X22" t="n">
-        <v>675.2581065529675</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.2581065529675</v>
+        <v>654.1345339792623</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1308.854947839649</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1019.726309053207</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>765.0418208473204</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W25" t="n">
-        <v>475.6246508103599</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123426</v>
+        <v>157.6003821033667</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>157.6003821033667</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6294,37 +6296,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>451.306441988998</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>301.1898025766623</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083208</v>
+        <v>301.1898025766623</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504515</v>
+        <v>301.1898025766623</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>620.2426249169049</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,16 +6685,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,13 +6703,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6962,16 +6964,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7014,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7160,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,22 +7250,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O39" t="n">
         <v>2123.441607278215</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250805</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095318</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001782</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281743</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945776</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164473</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.74515569858</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014294</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7667,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783528</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>43.65987261462408</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>234.4116509503159</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>9.900512684484966</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>22.04402060665569</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="M36" t="n">
-        <v>360.5026862907258</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.798708171485</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M39" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>76.4319698833857</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.51214010776135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23467,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>159.3855063928195</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>133.5789023442193</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>44.02488646708144</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>127.5533635427524</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>77.44155713300033</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>225.9581488685145</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>120.0525224452873</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>33.38685156731836</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>115.2640032163532</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338565</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>113.4744128257011</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>92.06259048257708</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>54.39880734555217</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>132.4158120388344</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.8365977366356</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>150.599789686359</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600801.4655374266</v>
+        <v>600801.4655374268</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374265</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374265</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754174</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="H2" t="n">
-        <v>782058.1194754173</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="J2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642843</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642843</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642842</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642845</v>
-      </c>
       <c r="O2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754175</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.14326909262409e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26423,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26439,22 +26441,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275959</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275954</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275954</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002542</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002542</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893207</v>
+        <v>-8560.145664893498</v>
       </c>
       <c r="C6" t="n">
         <v>581407.733549651</v>
       </c>
       <c r="D6" t="n">
-        <v>581407.733549651</v>
+        <v>581407.7335496511</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283653</v>
+        <v>149865.0874283661</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052621</v>
+        <v>675025.123905262</v>
       </c>
       <c r="G6" t="n">
-        <v>675025.1239052621</v>
+        <v>675025.1239052617</v>
       </c>
       <c r="H6" t="n">
-        <v>675025.1239052616</v>
+        <v>675025.1239052619</v>
       </c>
       <c r="I6" t="n">
+        <v>675025.1239052622</v>
+      </c>
+      <c r="J6" t="n">
+        <v>498601.9047126693</v>
+      </c>
+      <c r="K6" t="n">
         <v>675025.123905262</v>
       </c>
-      <c r="J6" t="n">
-        <v>498601.9047126691</v>
-      </c>
-      <c r="K6" t="n">
-        <v>631356.6950777868</v>
-      </c>
       <c r="L6" t="n">
-        <v>685862.2071814993</v>
+        <v>675025.123905262</v>
       </c>
       <c r="M6" t="n">
-        <v>551061.1919476619</v>
+        <v>540224.1086714248</v>
       </c>
       <c r="N6" t="n">
-        <v>685862.2071814996</v>
+        <v>675025.123905262</v>
       </c>
       <c r="O6" t="n">
-        <v>685862.2071814995</v>
+        <v>675025.1239052619</v>
       </c>
       <c r="P6" t="n">
         <v>675025.1239052619</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,28 +26755,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26823,10 +26825,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.1470415932533e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>239.1216284551145</v>
       </c>
       <c r="H2" t="n">
-        <v>73.66784637513197</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.9207969366495</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>86.26311576480668</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>40.0293952939725</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>185.4282575429068</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.4547497643519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>105.9018844263036</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>130.8675288472119</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>51.4913717266605</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28031,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>98.43097677636446</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,16 +28092,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.028161794974761e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-5.028161794974761e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.15546652705626e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28138,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-5.028161794974761e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.028161794974761e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-5.028161794974761e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.028161794974761e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262129</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,7 +35971,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>376.854446012637</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>567.6062243483289</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>216.9939276160097</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>271.30172556268</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>451.7807101798181</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366869</v>
       </c>
       <c r="M36" t="n">
-        <v>670.927063341192</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109146</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M39" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>409.6265432813985</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4359203.777275435</v>
+        <v>4352186.762383725</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>116.9104517624395</v>
       </c>
       <c r="G2" t="n">
-        <v>174.6625415656805</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>58.48269361864183</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>158.2763732572387</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>211.1947722143168</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>26.71728140711206</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>65.0588499087778</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>259.371007344704</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>254.4950516443631</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>94.94259091990867</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.3288200405002</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.19914695927525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>242.4981118695096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>158.9696347938387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.05201133037725</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.77945773665003</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,10 +2532,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>136.8736401074748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.0191556376765</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.5220628695177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>232.1241909910388</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.41616814310291</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>104.6354350586182</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>105.4007546619418</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.98486366573582</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.016392241183</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.016392241183</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="E2" t="n">
-        <v>1122.016392241183</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="F2" t="n">
-        <v>711.0304874515755</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>113.0164097179825</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791651</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.5435612426379</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="U5" t="n">
-        <v>2033.980194093214</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="V5" t="n">
-        <v>1702.917306749644</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.148651479529</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="X5" t="n">
-        <v>976.6828932184496</v>
+        <v>2163.808208254881</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.5435612426379</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>671.7249121235795</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>443.7353612255621</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426.303625751931</v>
+        <v>1525.746656041709</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1525.746656041709</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1525.746656041709</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1139.958403443465</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>728.9724986538574</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>311.0086905520443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727742</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.303625751931</v>
+        <v>1525.746656041709</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084171</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084171</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1394333084171</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084171</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,19 +5068,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5129,13 +5129,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,16 +5263,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>964.8400440244812</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>964.8400440244812</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.0474648809511</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4040.160816087027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3871.22463315912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>4382.384669597912</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>4221.809280917267</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>4221.809280917267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>4221.809280917267</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.1345339792623</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>485.1983510513554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>335.0817116390197</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>187.1686180566265</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>187.1686180566265</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227924</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227924</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227924</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>874.9271131227924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>654.1345339792623</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011341</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>385.5899330013841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>157.6003821033667</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.6003821033667</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623275</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>536.7509009095822</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>247.3337308726216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6548,19 +6548,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>943.017270764214</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>451.306441988998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>301.1898025766623</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>301.1898025766623</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>301.1898025766623</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227918</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>620.2426249169049</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>620.2426249169049</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>620.2426249169049</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>735.0407559057232</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.8632439327646</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1044.311772267568</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1044.311772267568</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.5117087630043</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6976,10 +6976,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>953.4522772463521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>953.4522772463521</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.6416868225887</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>544.6416868225887</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>820.5263570570736</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>592.5368061590563</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>592.5368061590563</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1168.665446597972</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1168.665446597972</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>879.2482765610114</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>879.2482765610114</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.2482765610114</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="44">
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498455</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>104.8749102765748</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>96.03744927814711</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>43.65987261462408</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>38.8600230194989</v>
       </c>
       <c r="N24" t="n">
-        <v>234.4116509503159</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>9.900512684484966</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>22.04402060665569</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>20.63789864135492</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>76.4319698833857</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>159.3855063928195</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>44.02488646708144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>127.5533635427524</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>77.44155713300033</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.0525224452873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>115.2640032163532</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>113.4744128257011</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>51.71984429841025</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.06259048257708</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.39880734555217</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.4158120388344</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>44.27839330891797</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>180.8365977366356</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.599789686359</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600801.4655374268</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>600801.4655374265</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>600801.4655374265</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642826</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754173</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="O2" t="n">
-        <v>782058.1194754174</v>
-      </c>
       <c r="P2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14326909262409e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26450,7 +26450,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893498</v>
+        <v>-8560.145664893236</v>
       </c>
       <c r="C6" t="n">
         <v>581407.733549651</v>
       </c>
       <c r="D6" t="n">
-        <v>581407.7335496511</v>
+        <v>581407.7335496504</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283661</v>
+        <v>148890.4961686443</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.123905262</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="G6" t="n">
-        <v>675025.1239052617</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="H6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="I6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="J6" t="n">
-        <v>498601.9047126693</v>
+        <v>497627.3134529474</v>
       </c>
       <c r="K6" t="n">
-        <v>675025.123905262</v>
+        <v>674050.53264554</v>
       </c>
       <c r="L6" t="n">
-        <v>675025.123905262</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="M6" t="n">
-        <v>540224.1086714248</v>
+        <v>539249.517411703</v>
       </c>
       <c r="N6" t="n">
-        <v>675025.123905262</v>
+        <v>674050.5326455402</v>
       </c>
       <c r="O6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="P6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455403</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1470415932533e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>289.9655939792719</v>
       </c>
       <c r="G2" t="n">
-        <v>239.1216284551145</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>86.93835440428941</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>83.12091415361536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>16.13933955173283</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>40.0293952939725</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>185.4282575429068</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>160.6508054802594</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>105.9018844263036</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>69.42772111999409</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>51.4913717266605</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115946</v>
       </c>
     </row>
     <row r="11">
@@ -28092,16 +28092,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.15546652705626e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003117</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>387.238612517683</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>406.4618263286133</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>376.854446012637</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N24" t="n">
-        <v>567.6062243483289</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>216.9939276160097</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>271.30172556268</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>451.7807101798181</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>462.5180961366869</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>269.8956035973792</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>409.6265432813985</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4352186.762383725</v>
+        <v>4357126.025232756</v>
       </c>
     </row>
     <row r="7">
@@ -1581,13 +1581,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -5229,10 +5229,10 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
         <v>614.6238123952637</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028587</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>51.71984429841025</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -26325,16 +26325,16 @@
         <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754178</v>
@@ -26343,13 +26343,13 @@
         <v>782058.1194754173</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754177</v>
@@ -26530,40 +26530,40 @@
         <v>581407.7335496504</v>
       </c>
       <c r="E6" t="n">
-        <v>148890.4961686443</v>
+        <v>149767.6283023937</v>
       </c>
       <c r="F6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792897</v>
       </c>
       <c r="G6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.66477929</v>
       </c>
       <c r="H6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="I6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792897</v>
       </c>
       <c r="J6" t="n">
-        <v>497627.3134529474</v>
+        <v>498504.4455866969</v>
       </c>
       <c r="K6" t="n">
-        <v>674050.53264554</v>
+        <v>674927.6647792895</v>
       </c>
       <c r="L6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792897</v>
       </c>
       <c r="M6" t="n">
-        <v>539249.517411703</v>
+        <v>540126.6495454526</v>
       </c>
       <c r="N6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="O6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="P6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792899</v>
       </c>
     </row>
   </sheetData>
